--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF9F2E6-5FCB-4C53-8166-635EC014476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8746C-8537-481A-B7BB-88AEB2051042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F8A36029-0CCB-479B-A812-12CB5D596272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77CBFDB1-324B-4422-A1C7-3929052B5692}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D0A4390-4031-41DE-AADE-2AA50475CBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B3CD51-83D9-450F-A0D0-9FA29F46FABB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f17_4RPM/RMSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC8746C-8537-481A-B7BB-88AEB2051042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18335798-9EBC-4AA8-A354-AD5D3FA270B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77CBFDB1-324B-4422-A1C7-3929052B5692}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{4F4D5A32-E1DA-4E4B-9CEF-1223CD124D17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B3CD51-83D9-450F-A0D0-9FA29F46FABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FF8A46-0724-4461-944D-4BF3F1E0CE08}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f17_4RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/G/Angle/f17_4RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\G\Angle\f17_4RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18335798-9EBC-4AA8-A354-AD5D3FA270B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9481DA47-09CB-4524-983F-61DA7F298F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{4F4D5A32-E1DA-4E4B-9CEF-1223CD124D17}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{EEF39274-D840-46F0-92B7-19D97D3C6B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FF8A46-0724-4461-944D-4BF3F1E0CE08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC18E7F-1047-4BE9-8DAC-37CB2516AC3C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
